--- a/Crawling/crawling_data/day_genie/day_genie_20220215.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220215.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
   <si>
     <t>날짜</t>
   </si>
@@ -46,8 +46,7 @@
     <t>잊을 수 있을까</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>회전목마 (Feat. Zion.T &amp; 원슈타인) (Prod. by Slom)</t>
@@ -269,8 +268,7 @@
     <t>Stronger (What Doesn't Kill You)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>비가 오는 날엔 (2021)</t>
@@ -547,9 +545,6 @@
   </si>
   <si>
     <t>이별을 말하는</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>쇼미더머니 10 Episode 2</t>
@@ -1180,7 +1175,7 @@
         <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1197,7 +1192,7 @@
         <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1231,7 +1226,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1265,7 +1260,7 @@
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1282,7 +1277,7 @@
         <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1316,7 +1311,7 @@
         <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1333,7 +1328,7 @@
         <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1367,7 +1362,7 @@
         <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1418,7 +1413,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1452,7 +1447,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1503,7 +1498,7 @@
         <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1520,7 +1515,7 @@
         <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1537,7 +1532,7 @@
         <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1589,7 +1584,7 @@
         <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1606,7 +1601,7 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1623,7 +1618,7 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1674,7 +1669,7 @@
         <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1691,7 +1686,7 @@
         <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1708,7 +1703,7 @@
         <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1725,7 +1720,7 @@
         <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1759,7 +1754,7 @@
         <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1827,7 +1822,7 @@
         <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1844,7 +1839,7 @@
         <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1861,7 +1856,7 @@
         <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1878,7 +1873,7 @@
         <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1895,7 +1890,7 @@
         <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1912,7 +1907,7 @@
         <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1946,7 +1941,7 @@
         <v>142</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1963,7 +1958,7 @@
         <v>113</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1980,7 +1975,7 @@
         <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1997,7 +1992,7 @@
         <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2014,7 +2009,7 @@
         <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2031,7 +2026,7 @@
         <v>146</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2048,7 +2043,7 @@
         <v>143</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2116,7 +2111,7 @@
         <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2133,7 +2128,7 @@
         <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2150,7 +2145,7 @@
         <v>113</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2167,7 +2162,7 @@
         <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2184,7 +2179,7 @@
         <v>150</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2201,7 +2196,7 @@
         <v>151</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2218,7 +2213,7 @@
         <v>152</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2252,7 +2247,7 @@
         <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2269,7 +2264,7 @@
         <v>121</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2286,7 +2281,7 @@
         <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2320,7 +2315,7 @@
         <v>116</v>
       </c>
       <c r="E73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2337,7 +2332,7 @@
         <v>156</v>
       </c>
       <c r="E74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2354,7 +2349,7 @@
         <v>118</v>
       </c>
       <c r="E75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2371,7 +2366,7 @@
         <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2388,7 +2383,7 @@
         <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2422,7 +2417,7 @@
         <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2439,7 +2434,7 @@
         <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2490,7 +2485,7 @@
         <v>121</v>
       </c>
       <c r="E83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2541,7 +2536,7 @@
         <v>162</v>
       </c>
       <c r="E86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2575,7 +2570,7 @@
         <v>164</v>
       </c>
       <c r="E88" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2609,7 +2604,7 @@
         <v>166</v>
       </c>
       <c r="E90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2643,7 +2638,7 @@
         <v>168</v>
       </c>
       <c r="E92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2677,7 +2672,7 @@
         <v>170</v>
       </c>
       <c r="E94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2694,7 +2689,7 @@
         <v>136</v>
       </c>
       <c r="E95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2728,7 +2723,7 @@
         <v>171</v>
       </c>
       <c r="E97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2745,7 +2740,7 @@
         <v>172</v>
       </c>
       <c r="E98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2762,7 +2757,7 @@
         <v>132</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2796,7 +2791,7 @@
         <v>170</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
